--- a/VT_Model_ELC_V01 (1).xlsx
+++ b/VT_Model_ELC_V01 (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="901" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="901" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="BALANCE" sheetId="138" r:id="rId1"/>
@@ -603,7 +603,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="319">
   <si>
     <t>Typ jednostki wytwórczej</t>
   </si>
@@ -1043,9 +1043,6 @@
     <t>PRE</t>
   </si>
   <si>
-    <t>TRANSF_HV-LV</t>
-  </si>
-  <si>
     <t>Electricity Transformation and Distribution High Voltage to Low Voltage</t>
   </si>
   <si>
@@ -1662,19 +1659,28 @@
     <t>ELEC_HV-HV</t>
   </si>
   <si>
-    <t>ELEC_HV-MV</t>
-  </si>
-  <si>
     <t>High - High Voltage Electricity (&gt;110 kV)</t>
   </si>
   <si>
-    <t>High - Medium Voltage Electricity (1-60 kV)</t>
-  </si>
-  <si>
-    <t>ELEC_MV-LV</t>
-  </si>
-  <si>
-    <t>Medium - Low Voltage Electricity (1-60 kV)</t>
+    <t>ELEC_MV-MV</t>
+  </si>
+  <si>
+    <t>Medium - Medium Voltage Electricity (1-60 kV)</t>
+  </si>
+  <si>
+    <t>ELEC_LV-LV</t>
+  </si>
+  <si>
+    <t>Low - Low Voltage Electricity (&lt; 1kV)</t>
+  </si>
+  <si>
+    <t>TRANSF_HV-HV</t>
+  </si>
+  <si>
+    <t>TRANSF_MV-MV</t>
+  </si>
+  <si>
+    <t>TRANSF_LV-LV</t>
   </si>
 </sst>
 </file>
@@ -5168,7 +5174,7 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="B2:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -5188,19 +5194,19 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="188" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="188"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="209" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4" s="209"/>
     </row>
     <row r="5" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="209" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C5" s="209"/>
     </row>
@@ -5209,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="299" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" s="212" t="s">
         <v>1</v>
@@ -5237,25 +5243,25 @@
       <c r="B7" s="297"/>
       <c r="C7" s="300"/>
       <c r="D7" s="139" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="139" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="139" t="s">
+      <c r="F7" s="139" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="139" t="s">
+      <c r="G7" s="139" t="s">
         <v>226</v>
       </c>
-      <c r="G7" s="139" t="s">
+      <c r="H7" s="139" t="s">
         <v>227</v>
       </c>
-      <c r="H7" s="139" t="s">
-        <v>228</v>
-      </c>
       <c r="I7" s="139" t="s">
+        <v>226</v>
+      </c>
+      <c r="J7" s="139" t="s">
         <v>227</v>
-      </c>
-      <c r="J7" s="139" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
@@ -5288,7 +5294,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="284" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9" s="207">
         <v>17023.8</v>
@@ -5311,7 +5317,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="284" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10" s="207">
         <v>7391.2</v>
@@ -5334,7 +5340,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="284" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D11" s="207">
         <v>4094.6000000000022</v>
@@ -5359,7 +5365,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="284" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D12" s="207">
         <v>1656.5</v>
@@ -5384,7 +5390,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="284" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D13" s="207">
         <v>6227.6934486274804</v>
@@ -5403,7 +5409,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="284" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="207">
         <v>3954.96</v>
@@ -5422,7 +5428,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="285" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D15" s="229">
         <v>19.806000000000001</v>
@@ -5445,7 +5451,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="286" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D16" s="219"/>
       <c r="E16" s="220">
@@ -5463,7 +5469,7 @@
     </row>
     <row r="17" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="211" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="211"/>
     </row>
@@ -5475,13 +5481,13 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="291" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C19" s="211"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="211" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C20" s="211"/>
     </row>
@@ -5501,7 +5507,7 @@
     </row>
     <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="188" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C23" s="188"/>
       <c r="D23" s="209"/>
@@ -5510,7 +5516,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="209" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C25" s="209"/>
       <c r="D25" s="209"/>
@@ -5519,7 +5525,7 @@
     </row>
     <row r="26" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="209" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="209"/>
       <c r="D26" s="209"/>
@@ -5531,7 +5537,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="292" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D27" s="212" t="s">
         <v>22</v>
@@ -5545,10 +5551,10 @@
       <c r="B28" s="295"/>
       <c r="C28" s="293"/>
       <c r="D28" s="139" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E28" s="290" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28" s="209"/>
     </row>
@@ -5557,10 +5563,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="287" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D29" s="208" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E29" s="224">
         <v>0.97706171756374371</v>
@@ -5573,10 +5579,10 @@
         <v>24</v>
       </c>
       <c r="C30" s="287" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D30" s="208" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E30" s="224">
         <v>0.9764416403645515</v>
@@ -5589,10 +5595,10 @@
         <v>24</v>
       </c>
       <c r="C31" s="287" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D31" s="208" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E31" s="224">
         <v>0.9515253427786764</v>
@@ -5605,10 +5611,10 @@
         <v>25</v>
       </c>
       <c r="C32" s="288" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D32" s="226" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E32" s="227">
         <v>0.85899999999999999</v>
@@ -5617,7 +5623,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="211" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C33" s="209"/>
       <c r="D33" s="209"/>
@@ -5637,7 +5643,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="291" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C35" s="209"/>
       <c r="D35" s="209"/>
@@ -5660,7 +5666,7 @@
     </row>
     <row r="38" spans="2:16" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="188" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C38" s="188"/>
       <c r="D38" s="209"/>
@@ -5676,7 +5682,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="209" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C40" s="209"/>
       <c r="D40" s="209"/>
@@ -5685,7 +5691,7 @@
     </row>
     <row r="41" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="209" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C41" s="209"/>
       <c r="D41" s="209"/>
@@ -5697,7 +5703,7 @@
         <v>21</v>
       </c>
       <c r="C42" s="292" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D42" s="228" t="s">
         <v>26</v>
@@ -5714,7 +5720,7 @@
         <v>35</v>
       </c>
       <c r="E43" s="289" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F43" s="209"/>
     </row>
@@ -5723,7 +5729,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="287" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D44" s="208" t="s">
         <v>28</v>
@@ -5739,7 +5745,7 @@
         <v>25</v>
       </c>
       <c r="C45" s="288" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D45" s="226" t="s">
         <v>29</v>
@@ -5752,7 +5758,7 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="211" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C46" s="209"/>
       <c r="D46" s="209"/>
@@ -5770,7 +5776,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="291" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
@@ -5799,7 +5805,7 @@
   </sheetPr>
   <dimension ref="B1:AL35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
@@ -5840,17 +5846,17 @@
   <sheetData>
     <row r="1" spans="2:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="116" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="114" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B3" s="115" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5860,19 +5866,19 @@
       <c r="D6" s="111"/>
       <c r="E6" s="110"/>
       <c r="F6" s="109" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="108" t="s">
         <v>282</v>
-      </c>
-      <c r="G6" s="108" t="s">
-        <v>283</v>
       </c>
       <c r="H6" s="107"/>
       <c r="I6" s="107"/>
       <c r="J6" s="107"/>
       <c r="K6" s="106" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L6" s="109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M6" s="105">
         <v>144879.37399999998</v>
@@ -5882,19 +5888,19 @@
       <c r="P6" s="111"/>
       <c r="Q6" s="104"/>
       <c r="R6" s="103" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S6" s="102" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T6" s="101"/>
       <c r="U6" s="101"/>
       <c r="V6" s="101"/>
       <c r="W6" s="100" t="s">
+        <v>282</v>
+      </c>
+      <c r="X6" s="103" t="s">
         <v>283</v>
-      </c>
-      <c r="X6" s="103" t="s">
-        <v>284</v>
       </c>
       <c r="Y6" s="99">
         <v>7209.7110000000002</v>
@@ -5913,7 +5919,7 @@
       <c r="G7" s="94"/>
       <c r="N7" s="98"/>
       <c r="O7" s="93" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P7" s="96"/>
       <c r="Q7" s="92"/>
@@ -5923,7 +5929,7 @@
       <c r="V7" s="88"/>
       <c r="Z7" s="98"/>
       <c r="AA7" s="93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB7" s="96"/>
     </row>
@@ -5933,10 +5939,10 @@
       <c r="D8" s="85"/>
       <c r="E8" s="84"/>
       <c r="F8" s="83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G8" s="82" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H8" s="81"/>
       <c r="N8" s="87"/>
@@ -5997,17 +6003,17 @@
       <c r="D12" s="111"/>
       <c r="E12" s="107"/>
       <c r="F12" s="109" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="71" t="s">
         <v>282</v>
-      </c>
-      <c r="G12" s="71" t="s">
-        <v>283</v>
       </c>
       <c r="H12" s="79"/>
       <c r="K12" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="L12" s="103" t="s">
         <v>283</v>
-      </c>
-      <c r="L12" s="103" t="s">
-        <v>284</v>
       </c>
       <c r="M12" s="69">
         <v>105527.87399999998</v>
@@ -6019,10 +6025,10 @@
         <v>109718.511</v>
       </c>
       <c r="R12" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S12" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T12" s="65"/>
       <c r="U12" s="77">
@@ -6030,10 +6036,10 @@
       </c>
       <c r="V12" s="90"/>
       <c r="W12" s="100" t="s">
+        <v>282</v>
+      </c>
+      <c r="X12" s="103" t="s">
         <v>283</v>
-      </c>
-      <c r="X12" s="103" t="s">
-        <v>284</v>
       </c>
       <c r="Y12" s="64"/>
       <c r="Z12" s="113"/>
@@ -6041,10 +6047,10 @@
       <c r="AB12" s="111"/>
       <c r="AC12" s="63"/>
       <c r="AD12" s="62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AE12" s="61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF12" s="113"/>
       <c r="AG12" s="112"/>
@@ -6061,7 +6067,7 @@
       <c r="H13" s="79"/>
       <c r="N13" s="98"/>
       <c r="O13" s="93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P13" s="96"/>
       <c r="S13" s="59"/>
@@ -6070,12 +6076,12 @@
       <c r="Y13" s="58"/>
       <c r="Z13" s="98"/>
       <c r="AA13" s="93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB13" s="96"/>
       <c r="AF13" s="98"/>
       <c r="AG13" s="93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH13" s="96"/>
       <c r="AI13" s="60"/>
@@ -6086,19 +6092,19 @@
       <c r="D14" s="85"/>
       <c r="E14" s="81"/>
       <c r="F14" s="83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G14" s="82" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H14" s="57"/>
       <c r="I14" s="56"/>
       <c r="J14" s="81"/>
       <c r="K14" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L14" s="83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M14" s="54">
         <v>8049.0010000000002</v>
@@ -6110,22 +6116,22 @@
       <c r="U14" s="53"/>
       <c r="V14" s="52"/>
       <c r="W14" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X14" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y14" s="50"/>
       <c r="AA14" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AB14" s="96"/>
       <c r="AD14" s="48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF14" s="98"/>
       <c r="AG14" s="93" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AH14" s="96"/>
       <c r="AI14" s="60"/>
@@ -6148,11 +6154,11 @@
       <c r="Z15" s="98"/>
       <c r="AB15" s="96"/>
       <c r="AD15" s="48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF15" s="98"/>
       <c r="AG15" s="93" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AH15" s="96"/>
       <c r="AI15" s="60"/>
@@ -6166,17 +6172,17 @@
       <c r="U16" s="42"/>
       <c r="V16" s="41"/>
       <c r="W16" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X16" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y16" s="38"/>
       <c r="Z16" s="87"/>
       <c r="AA16" s="86"/>
       <c r="AB16" s="85"/>
       <c r="AD16" s="48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF16" s="87"/>
       <c r="AG16" s="86"/>
@@ -6209,19 +6215,19 @@
       <c r="D18" s="111"/>
       <c r="E18" s="107"/>
       <c r="F18" s="109" t="s">
+        <v>281</v>
+      </c>
+      <c r="G18" s="71" t="s">
         <v>282</v>
-      </c>
-      <c r="G18" s="71" t="s">
-        <v>283</v>
       </c>
       <c r="H18" s="79"/>
       <c r="I18" s="44"/>
       <c r="J18" s="53"/>
       <c r="K18" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L18" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M18" s="33">
         <v>57896.275999999998</v>
@@ -6233,10 +6239,10 @@
         <v>56087.057999999997</v>
       </c>
       <c r="R18" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S18" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T18" s="30">
         <v>56087.057999999997</v>
@@ -6247,14 +6253,14 @@
     <row r="19" spans="2:38" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="98"/>
       <c r="C19" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D19" s="96"/>
       <c r="G19" s="94"/>
       <c r="H19" s="79"/>
       <c r="N19" s="98"/>
       <c r="O19" s="93" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P19" s="96"/>
       <c r="T19" s="29"/>
@@ -6267,17 +6273,17 @@
       <c r="D20" s="85"/>
       <c r="E20" s="81"/>
       <c r="F20" s="83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H20" s="57"/>
       <c r="K20" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M20" s="26">
         <v>1197.2349999999999</v>
@@ -6311,10 +6317,10 @@
       <c r="U21" s="53"/>
       <c r="V21" s="90"/>
       <c r="W21" s="100" t="s">
+        <v>282</v>
+      </c>
+      <c r="X21" s="103" t="s">
         <v>283</v>
-      </c>
-      <c r="X21" s="103" t="s">
-        <v>284</v>
       </c>
       <c r="Y21" s="64"/>
       <c r="Z21" s="113"/>
@@ -6322,16 +6328,16 @@
       <c r="AB21" s="111"/>
       <c r="AC21" s="63"/>
       <c r="AD21" s="62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AE21" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF21" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG21" s="62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AH21" s="22"/>
       <c r="AI21" s="113"/>
@@ -6348,13 +6354,13 @@
       <c r="Y22" s="58"/>
       <c r="Z22" s="98"/>
       <c r="AA22" s="49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB22" s="96"/>
       <c r="AE22" s="21"/>
       <c r="AI22" s="98"/>
       <c r="AJ22" s="93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AK22" s="96"/>
       <c r="AL22" s="60"/>
@@ -6364,7 +6370,7 @@
       <c r="H23" s="79"/>
       <c r="J23" s="25"/>
       <c r="M23" s="115" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P23" s="310">
         <v>154125.60999999996</v>
@@ -6377,24 +6383,24 @@
       <c r="U23" s="53"/>
       <c r="V23" s="65"/>
       <c r="W23" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X23" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y23" s="20"/>
       <c r="Z23" s="98"/>
       <c r="AA23" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AB23" s="96"/>
       <c r="AE23" s="19"/>
       <c r="AG23" s="48" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI23" s="98"/>
       <c r="AJ23" s="93" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AK23" s="96"/>
       <c r="AL23" s="60"/>
@@ -6407,15 +6413,15 @@
         <v>12579.937</v>
       </c>
       <c r="F24" s="109" t="s">
+        <v>281</v>
+      </c>
+      <c r="G24" s="71" t="s">
         <v>282</v>
-      </c>
-      <c r="G24" s="71" t="s">
-        <v>283</v>
       </c>
       <c r="H24" s="79"/>
       <c r="J24" s="25"/>
       <c r="M24" s="115" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P24" s="310">
         <v>142240.554</v>
@@ -6430,11 +6436,11 @@
       <c r="AB24" s="96"/>
       <c r="AE24" s="19"/>
       <c r="AG24" s="48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AI24" s="98"/>
       <c r="AJ24" s="93" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK24" s="96"/>
       <c r="AL24" s="60"/>
@@ -6447,7 +6453,7 @@
       <c r="H25" s="79"/>
       <c r="J25" s="25"/>
       <c r="M25" s="115" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P25" s="310">
         <v>1075.1959999999999</v>
@@ -6460,10 +6466,10 @@
       <c r="U25" s="18"/>
       <c r="V25" s="18"/>
       <c r="W25" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X25" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y25" s="17"/>
       <c r="Z25" s="87"/>
@@ -6471,7 +6477,7 @@
       <c r="AB25" s="85"/>
       <c r="AE25" s="19"/>
       <c r="AG25" s="48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AI25" s="87"/>
       <c r="AJ25" s="86"/>
@@ -6481,22 +6487,22 @@
     <row r="26" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="98"/>
       <c r="C26" s="49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D26" s="96"/>
       <c r="E26" s="16">
         <v>5779.1689999999999</v>
       </c>
       <c r="F26" s="83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H26" s="57"/>
       <c r="J26" s="25"/>
       <c r="M26" s="115" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P26" s="310">
         <v>1620.396</v>
@@ -6517,7 +6523,7 @@
       <c r="J27" s="25"/>
       <c r="K27" s="14"/>
       <c r="M27" s="115" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P27" s="311">
         <v>5.9623212521267233E-2</v>
@@ -6533,10 +6539,10 @@
       <c r="D28" s="85"/>
       <c r="E28" s="13"/>
       <c r="F28" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -6548,10 +6554,10 @@
       <c r="AB28" s="111"/>
       <c r="AC28" s="63"/>
       <c r="AD28" s="62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AE28" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL28" s="60"/>
     </row>
@@ -6561,7 +6567,7 @@
       <c r="Y29" s="58"/>
       <c r="Z29" s="98"/>
       <c r="AA29" s="49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB29" s="96"/>
       <c r="AL29" s="60"/>
@@ -6572,7 +6578,7 @@
       <c r="Y30" s="58"/>
       <c r="Z30" s="98"/>
       <c r="AA30" s="49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB30" s="96"/>
       <c r="AL30" s="60"/>
@@ -6586,10 +6592,10 @@
       <c r="AB31" s="85"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL31" s="60"/>
     </row>
@@ -6601,10 +6607,10 @@
         <v>20432.701999999997</v>
       </c>
       <c r="F32" s="109" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" s="71" t="s">
         <v>282</v>
-      </c>
-      <c r="G32" s="71" t="s">
-        <v>283</v>
       </c>
       <c r="J32" s="25"/>
       <c r="Y32" s="36"/>
@@ -6625,7 +6631,7 @@
     <row r="33" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B33" s="98"/>
       <c r="C33" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33" s="96"/>
       <c r="J33" s="25"/>
@@ -6679,8 +6685,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6786,28 +6792,28 @@
     </row>
     <row r="7" spans="2:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="137" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="D7" s="137" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="E7" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="F7" s="275" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="137" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="275" t="s">
+      <c r="H7" s="275" t="s">
         <v>257</v>
       </c>
-      <c r="G7" s="137" t="s">
+      <c r="I7" s="137" t="s">
         <v>197</v>
-      </c>
-      <c r="H7" s="275" t="s">
-        <v>258</v>
-      </c>
-      <c r="I7" s="137" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6815,7 +6821,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="238" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D8" s="238" t="s">
         <v>48</v>
@@ -6839,10 +6845,10 @@
         <v>47</v>
       </c>
       <c r="C9" s="238" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" s="238" t="s">
         <v>311</v>
-      </c>
-      <c r="D9" s="238" t="s">
-        <v>313</v>
       </c>
       <c r="E9" s="237" t="s">
         <v>49</v>
@@ -6866,7 +6872,7 @@
         <v>312</v>
       </c>
       <c r="D10" s="238" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E10" s="237" t="s">
         <v>49</v>
@@ -6887,7 +6893,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="240" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" s="240" t="s">
         <v>53</v>
@@ -6911,10 +6917,10 @@
         <v>47</v>
       </c>
       <c r="C12" s="240" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="240" t="s">
         <v>315</v>
-      </c>
-      <c r="D12" s="240" t="s">
-        <v>316</v>
       </c>
       <c r="E12" s="239" t="s">
         <v>49</v>
@@ -6935,7 +6941,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="238" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D13" s="238" t="s">
         <v>54</v>
@@ -7004,10 +7010,10 @@
         <v>59</v>
       </c>
       <c r="C16" s="240" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D16" s="240" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E16" s="240" t="s">
         <v>49</v>
@@ -7024,10 +7030,10 @@
         <v>59</v>
       </c>
       <c r="C17" s="238" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D17" s="238" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E17" s="238" t="s">
         <v>49</v>
@@ -7116,10 +7122,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz2"/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7226,31 +7232,31 @@
     </row>
     <row r="7" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="137" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="D7" s="137" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="E7" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="F7" s="137" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="G7" s="137" t="s">
         <v>203</v>
       </c>
-      <c r="G7" s="137" t="s">
-        <v>204</v>
-      </c>
       <c r="H7" s="137" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I7" s="276" t="s">
+        <v>262</v>
+      </c>
+      <c r="J7" s="276" t="s">
         <v>263</v>
-      </c>
-      <c r="J7" s="276" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7261,7 +7267,7 @@
         <v>92</v>
       </c>
       <c r="D8" s="172" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E8" s="172" t="s">
         <v>93</v>
@@ -7286,7 +7292,7 @@
         <v>92</v>
       </c>
       <c r="D9" s="200" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" s="200" t="s">
         <v>95</v>
@@ -7311,7 +7317,7 @@
         <v>92</v>
       </c>
       <c r="D10" s="172" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E10" s="172" t="s">
         <v>96</v>
@@ -7336,7 +7342,7 @@
         <v>92</v>
       </c>
       <c r="D11" s="200" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E11" s="200" t="s">
         <v>97</v>
@@ -7436,16 +7442,16 @@
         <v>92</v>
       </c>
       <c r="D15" s="279" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" s="279" t="s">
         <v>107</v>
-      </c>
-      <c r="E15" s="279" t="s">
-        <v>108</v>
       </c>
       <c r="F15" s="278" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="278" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H15" s="278" t="s">
         <v>50</v>
@@ -7453,138 +7459,188 @@
       <c r="I15" s="278"/>
       <c r="J15" s="278"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="280" t="s">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="277" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="280" t="s">
+      <c r="C16" s="278" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="281" t="s">
+      <c r="D16" s="279" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" s="279" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="278" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="278" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" s="278" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="278"/>
+      <c r="J16" s="278"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="277" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="278" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="279" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" s="279" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="278" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="278" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" s="278" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="278"/>
+      <c r="J17" s="278"/>
+    </row>
+    <row r="18" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="280" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="280" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="281" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="281" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="281" t="s">
+      <c r="F18" s="280" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="280" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18" s="280" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="280"/>
+      <c r="J18" s="280"/>
+    </row>
+    <row r="19" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="B19" s="142"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F20" s="303"/>
+      <c r="G20" s="303"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="304" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="280" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="280" t="s">
-        <v>222</v>
-      </c>
-      <c r="H16" s="280" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="280"/>
-      <c r="J16" s="280"/>
-    </row>
-    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="142"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F18" s="303"/>
-      <c r="G18" s="303"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="304" t="s">
+      <c r="C22" s="304"/>
+      <c r="D22" s="304"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="304"/>
-      <c r="D20" s="304"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="122" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="122" t="s">
+      <c r="D23" s="122"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="124" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="122"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="124" t="s">
+      <c r="D24" s="124"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="124"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="122" t="s">
+      <c r="C25" s="122" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="122" t="s">
+      <c r="D25" s="122"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="124" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="124" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="122"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="124" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="124" t="s">
+      <c r="D26" s="124"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="124"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="122" t="s">
+      <c r="C27" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="D27" s="122" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="122" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="124" t="s">
+      <c r="C28" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="124" t="s">
+      <c r="D28" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="124" t="s">
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="122" t="s">
+      <c r="C29" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="D29" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="122" t="s">
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="124" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="124" t="s">
+      <c r="C30" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="124" t="s">
+      <c r="D30" s="124" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="124" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="118" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="118"/>
+      <c r="D31" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7599,7 +7655,7 @@
   <sheetPr codeName="Arkusz3"/>
   <dimension ref="B2:AD27"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
@@ -7628,7 +7684,7 @@
   <sheetData>
     <row r="2" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="270" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="188"/>
       <c r="E2" s="146"/>
@@ -7664,7 +7720,7 @@
     </row>
     <row r="4" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="154"/>
       <c r="G4" s="154"/>
@@ -7686,55 +7742,55 @@
         <v>76</v>
       </c>
       <c r="C5" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="E5" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="F5" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="G5" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="136" t="s">
+      <c r="H5" s="134" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="134" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="134" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="134" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="134" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" s="134" t="s">
-        <v>187</v>
-      </c>
-      <c r="J5" s="134" t="s">
-        <v>188</v>
-      </c>
-      <c r="K5" s="134" t="s">
-        <v>189</v>
-      </c>
-      <c r="L5" s="134" t="s">
-        <v>190</v>
-      </c>
-      <c r="M5" s="134" t="s">
-        <v>191</v>
-      </c>
-      <c r="N5" s="134" t="s">
+      <c r="O5" s="136" t="s">
         <v>135</v>
       </c>
-      <c r="O5" s="136" t="s">
+      <c r="P5" s="136" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q5" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="P5" s="136" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q5" s="136" t="s">
+      <c r="R5" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="R5" s="136" t="s">
+      <c r="S5" s="136" t="s">
         <v>138</v>
-      </c>
-      <c r="S5" s="136" t="s">
-        <v>139</v>
       </c>
       <c r="T5"/>
       <c r="W5"/>
@@ -7742,25 +7798,25 @@
     </row>
     <row r="6" spans="2:30" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="F6" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="G6" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="138" t="s">
+      <c r="H6" s="305" t="s">
         <v>144</v>
-      </c>
-      <c r="H6" s="305" t="s">
-        <v>145</v>
       </c>
       <c r="I6" s="305"/>
       <c r="J6" s="305"/>
@@ -7769,44 +7825,44 @@
       <c r="M6" s="305"/>
       <c r="N6" s="305"/>
       <c r="O6" s="138" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="P6" s="138" t="s">
+      <c r="Q6" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="R6" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="Q6" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="R6" s="138" t="s">
+      <c r="S6" s="138" t="s">
         <v>148</v>
-      </c>
-      <c r="S6" s="138" t="s">
-        <v>149</v>
       </c>
       <c r="Y6" s="181"/>
       <c r="Z6" s="143"/>
     </row>
     <row r="7" spans="2:30" ht="53.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="137" t="s">
         <v>206</v>
-      </c>
-      <c r="E7" s="137" t="s">
-        <v>207</v>
       </c>
       <c r="F7" s="137" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="137" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H7" s="306" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I7" s="306"/>
       <c r="J7" s="306"/>
@@ -7815,19 +7871,19 @@
       <c r="M7" s="306"/>
       <c r="N7" s="306"/>
       <c r="O7" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="P7" s="137" t="s">
         <v>209</v>
       </c>
-      <c r="P7" s="137" t="s">
+      <c r="Q7" s="137" t="s">
+        <v>209</v>
+      </c>
+      <c r="R7" s="137" t="s">
         <v>210</v>
       </c>
-      <c r="Q7" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="R7" s="137" t="s">
+      <c r="S7" s="137" t="s">
         <v>211</v>
-      </c>
-      <c r="S7" s="137" t="s">
-        <v>212</v>
       </c>
       <c r="Y7" s="181"/>
       <c r="Z7" s="143"/>
@@ -7842,11 +7898,11 @@
         <v>Existing Hard Coal Power Plants</v>
       </c>
       <c r="D8" s="250" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8" s="250" t="str">
         <f>SEC_Comm!C10</f>
-        <v>ELEC_HV-MV</v>
+        <v>ELEC_MV-MV</v>
       </c>
       <c r="F8" s="244">
         <f>(BALANCE!E9*3.6/10^3)/(BALANCE!G9*BALANCE!H9/10^6)</f>
@@ -7907,11 +7963,11 @@
         <v>Existing Brown Coal Power Plants</v>
       </c>
       <c r="D9" s="265" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E9" s="251" t="str">
         <f>SEC_Comm!C10</f>
-        <v>ELEC_HV-MV</v>
+        <v>ELEC_MV-MV</v>
       </c>
       <c r="F9" s="247">
         <f>(BALANCE!E10*3.6/10^3)/(BALANCE!G10*BALANCE!H10/10^6)</f>
@@ -7964,7 +8020,7 @@
     </row>
     <row r="13" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="270" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C13" s="188"/>
       <c r="U13" s="179"/>
@@ -8007,43 +8063,43 @@
         <v>76</v>
       </c>
       <c r="C16" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="136" t="s">
+      <c r="E16" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="136" t="s">
+      <c r="F16" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="F16" s="136" t="s">
+      <c r="G16" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="136" t="s">
-        <v>134</v>
-      </c>
       <c r="H16" s="135" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I16" s="135" t="s">
         <v>36</v>
       </c>
       <c r="J16" s="134" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K16" s="136" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="L16" s="134" t="s">
+      <c r="M16" s="134" t="s">
+        <v>136</v>
+      </c>
+      <c r="N16" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="M16" s="134" t="s">
-        <v>137</v>
-      </c>
-      <c r="N16" s="136" t="s">
+      <c r="O16" s="136" t="s">
         <v>138</v>
-      </c>
-      <c r="O16" s="136" t="s">
-        <v>139</v>
       </c>
       <c r="V16" s="182"/>
       <c r="Y16" s="182"/>
@@ -8055,46 +8111,46 @@
     </row>
     <row r="17" spans="2:30" ht="61.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="133" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="133" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="133" t="s">
+      <c r="F17" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="133" t="s">
+      <c r="G17" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="133" t="s">
+      <c r="H17" s="132" t="s">
+        <v>270</v>
+      </c>
+      <c r="I17" s="132" t="s">
+        <v>273</v>
+      </c>
+      <c r="J17" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="H17" s="132" t="s">
-        <v>271</v>
-      </c>
-      <c r="I17" s="132" t="s">
-        <v>274</v>
-      </c>
-      <c r="J17" s="129" t="s">
+      <c r="K17" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="K17" s="133" t="s">
+      <c r="L17" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="L17" s="133" t="s">
+      <c r="M17" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="N17" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="133" t="s">
-        <v>147</v>
-      </c>
-      <c r="N17" s="133" t="s">
+      <c r="O17" s="133" t="s">
         <v>148</v>
-      </c>
-      <c r="O17" s="133" t="s">
-        <v>149</v>
       </c>
       <c r="Y17" s="182"/>
       <c r="Z17" s="182"/>
@@ -8102,46 +8158,46 @@
     </row>
     <row r="18" spans="2:30" ht="79.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="131" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C18" s="131" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D18" s="131" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="131" t="s">
         <v>206</v>
-      </c>
-      <c r="E18" s="131" t="s">
-        <v>207</v>
       </c>
       <c r="F18" s="131" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="130" t="s">
+        <v>271</v>
+      </c>
+      <c r="I18" s="130" t="s">
+        <v>274</v>
+      </c>
+      <c r="J18" s="128" t="s">
+        <v>204</v>
+      </c>
+      <c r="K18" s="131" t="s">
         <v>208</v>
       </c>
-      <c r="H18" s="130" t="s">
-        <v>272</v>
-      </c>
-      <c r="I18" s="130" t="s">
-        <v>275</v>
-      </c>
-      <c r="J18" s="128" t="s">
-        <v>205</v>
-      </c>
-      <c r="K18" s="131" t="s">
+      <c r="L18" s="131" t="s">
         <v>209</v>
       </c>
-      <c r="L18" s="131" t="s">
+      <c r="M18" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="N18" s="131" t="s">
         <v>210</v>
       </c>
-      <c r="M18" s="131" t="s">
-        <v>210</v>
-      </c>
-      <c r="N18" s="131" t="s">
+      <c r="O18" s="131" t="s">
         <v>211</v>
-      </c>
-      <c r="O18" s="131" t="s">
-        <v>212</v>
       </c>
       <c r="Y18" s="182"/>
       <c r="Z18" s="182"/>
@@ -8149,16 +8205,16 @@
     </row>
     <row r="19" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C19" s="127" t="s">
         <v>96</v>
       </c>
       <c r="D19" s="127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" s="127" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F19" s="126">
         <v>0.37835241091502259</v>
@@ -8194,7 +8250,7 @@
         <v>2020</v>
       </c>
       <c r="I20" s="124" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J20" s="123">
         <v>17.023799999999998</v>
@@ -8218,7 +8274,7 @@
         <v>2021</v>
       </c>
       <c r="I21" s="121" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J21" s="120">
         <v>17.023799999999998</v>
@@ -8392,7 +8448,7 @@
   <sheetData>
     <row r="2" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="270" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="161"/>
       <c r="E2" s="146"/>
@@ -8428,7 +8484,7 @@
     </row>
     <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="154"/>
       <c r="G4" s="154"/>
@@ -8449,76 +8505,76 @@
         <v>76</v>
       </c>
       <c r="C5" s="274" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="274" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="F5" s="274" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="G5" s="274" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="274" t="s">
+      <c r="H5" s="282" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" s="282" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="282" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="282" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" s="282" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="282" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" s="282" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="282" t="s">
-        <v>221</v>
-      </c>
-      <c r="I5" s="282" t="s">
-        <v>187</v>
-      </c>
-      <c r="J5" s="282" t="s">
-        <v>188</v>
-      </c>
-      <c r="K5" s="282" t="s">
-        <v>189</v>
-      </c>
-      <c r="L5" s="282" t="s">
-        <v>190</v>
-      </c>
-      <c r="M5" s="282" t="s">
-        <v>191</v>
-      </c>
-      <c r="N5" s="282" t="s">
+      <c r="O5" s="274" t="s">
         <v>135</v>
       </c>
-      <c r="O5" s="274" t="s">
+      <c r="P5" s="274" t="s">
         <v>136</v>
       </c>
-      <c r="P5" s="274" t="s">
+      <c r="Q5" s="274" t="s">
         <v>137</v>
       </c>
-      <c r="Q5" s="274" t="s">
+      <c r="R5" s="274" t="s">
         <v>138</v>
-      </c>
-      <c r="R5" s="274" t="s">
-        <v>139</v>
       </c>
       <c r="S5"/>
     </row>
     <row r="6" spans="2:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B6" s="138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="F6" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="G6" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="138" t="s">
+      <c r="H6" s="305" t="s">
         <v>144</v>
-      </c>
-      <c r="H6" s="305" t="s">
-        <v>145</v>
       </c>
       <c r="I6" s="305"/>
       <c r="J6" s="305"/>
@@ -8527,39 +8583,39 @@
       <c r="M6" s="305"/>
       <c r="N6" s="305"/>
       <c r="O6" s="138" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="P6" s="138" t="s">
+      <c r="Q6" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="Q6" s="138" t="s">
+      <c r="R6" s="138" t="s">
         <v>148</v>
-      </c>
-      <c r="R6" s="138" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="137" t="s">
         <v>206</v>
-      </c>
-      <c r="E7" s="137" t="s">
-        <v>207</v>
       </c>
       <c r="F7" s="137" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="137" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H7" s="306" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I7" s="306"/>
       <c r="J7" s="306"/>
@@ -8568,16 +8624,16 @@
       <c r="M7" s="306"/>
       <c r="N7" s="306"/>
       <c r="O7" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="P7" s="137" t="s">
         <v>209</v>
       </c>
-      <c r="P7" s="137" t="s">
+      <c r="Q7" s="137" t="s">
         <v>210</v>
       </c>
-      <c r="Q7" s="137" t="s">
+      <c r="R7" s="137" t="s">
         <v>211</v>
-      </c>
-      <c r="R7" s="137" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8590,11 +8646,11 @@
         <v>Existing Onshore Wind Turbines</v>
       </c>
       <c r="D8" s="167" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" s="167" t="str">
         <f>SEC_Comm!C10</f>
-        <v>ELEC_HV-MV</v>
+        <v>ELEC_MV-MV</v>
       </c>
       <c r="F8" s="169">
         <v>1</v>
@@ -8649,11 +8705,11 @@
         <v>Existing Photovoltaics (all Types)</v>
       </c>
       <c r="D9" s="198" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="198" t="str">
         <f>SEC_Comm!C10</f>
-        <v>ELEC_HV-MV</v>
+        <v>ELEC_MV-MV</v>
       </c>
       <c r="F9" s="230">
         <v>1</v>
@@ -8720,7 +8776,7 @@
   <sheetPr codeName="Arkusz5"/>
   <dimension ref="B2:AH24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AH8" sqref="AH8:AH10"/>
     </sheetView>
   </sheetViews>
@@ -8756,7 +8812,7 @@
   <sheetData>
     <row r="2" spans="2:34" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="270" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="161"/>
       <c r="E2" s="146"/>
@@ -8780,13 +8836,13 @@
       <c r="Q3" s="148"/>
       <c r="R3" s="148"/>
       <c r="W3" s="188" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X3" s="188"/>
     </row>
     <row r="4" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="154"/>
       <c r="G4" s="154"/>
@@ -8807,54 +8863,54 @@
         <v>76</v>
       </c>
       <c r="C5" s="274" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="274" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="F5" s="274" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="G5" s="274" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="274" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="274" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="274" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="274" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="274" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="274" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="274" t="s">
-        <v>160</v>
-      </c>
-      <c r="J5" s="274" t="s">
-        <v>161</v>
-      </c>
-      <c r="K5" s="274" t="s">
+      <c r="L5" s="282" t="s">
+        <v>185</v>
+      </c>
+      <c r="M5" s="282" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="282" t="s">
-        <v>186</v>
-      </c>
-      <c r="M5" s="282" t="s">
+      <c r="N5" s="274" t="s">
         <v>135</v>
       </c>
-      <c r="N5" s="274" t="s">
+      <c r="O5" s="274" t="s">
         <v>136</v>
       </c>
-      <c r="O5" s="274" t="s">
+      <c r="P5" s="274" t="s">
         <v>137</v>
       </c>
-      <c r="P5" s="274" t="s">
+      <c r="Q5" s="274" t="s">
         <v>138</v>
-      </c>
-      <c r="Q5" s="274" t="s">
-        <v>139</v>
       </c>
       <c r="R5" s="274"/>
       <c r="S5"/>
       <c r="W5" s="203" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X5" s="204"/>
       <c r="Y5" s="204"/>
@@ -8870,139 +8926,139 @@
     </row>
     <row r="6" spans="2:34" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="F6" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="G6" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="138" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="138" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" s="138" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="138" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="138" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" s="138" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6" s="138" t="s">
-        <v>166</v>
-      </c>
-      <c r="K6" s="138" t="s">
+      <c r="L6" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="L6" s="138" t="s">
+      <c r="M6" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="N6" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="138" t="s">
-        <v>145</v>
-      </c>
-      <c r="N6" s="138" t="s">
+      <c r="O6" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="O6" s="138" t="s">
+      <c r="P6" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="P6" s="138" t="s">
+      <c r="Q6" s="138" t="s">
         <v>148</v>
-      </c>
-      <c r="Q6" s="138" t="s">
-        <v>149</v>
       </c>
       <c r="R6" s="138"/>
       <c r="W6" s="206" t="s">
+        <v>166</v>
+      </c>
+      <c r="X6" s="206" t="s">
         <v>167</v>
       </c>
-      <c r="X6" s="206" t="s">
+      <c r="Y6" s="206" t="s">
         <v>168</v>
       </c>
-      <c r="Y6" s="206" t="s">
+      <c r="Z6" s="206" t="s">
         <v>169</v>
-      </c>
-      <c r="Z6" s="206" t="s">
-        <v>170</v>
       </c>
       <c r="AA6" s="206" t="s">
         <v>28</v>
       </c>
       <c r="AB6" s="206" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC6" s="206" t="s">
         <v>171</v>
       </c>
-      <c r="AC6" s="206" t="s">
+      <c r="AD6" s="206" t="s">
         <v>172</v>
       </c>
-      <c r="AD6" s="206" t="s">
+      <c r="AE6" s="206" t="s">
         <v>173</v>
       </c>
-      <c r="AE6" s="206" t="s">
+      <c r="AF6" s="206" t="s">
         <v>174</v>
       </c>
-      <c r="AF6" s="206" t="s">
+      <c r="AG6" s="206" t="s">
         <v>175</v>
       </c>
-      <c r="AG6" s="206" t="s">
+      <c r="AH6" s="206" t="s">
         <v>176</v>
-      </c>
-      <c r="AH6" s="206" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="2:34" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="137" t="s">
         <v>206</v>
-      </c>
-      <c r="E7" s="137" t="s">
-        <v>207</v>
       </c>
       <c r="F7" s="137" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="137" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="137" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="H7" s="137" t="s">
+      <c r="J7" s="137" t="s">
         <v>216</v>
       </c>
-      <c r="I7" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="J7" s="137" t="s">
-        <v>217</v>
-      </c>
       <c r="K7" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="L7" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="M7" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="N7" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="L7" s="137" t="s">
-        <v>205</v>
-      </c>
-      <c r="M7" s="137" t="s">
-        <v>205</v>
-      </c>
-      <c r="N7" s="137" t="s">
+      <c r="O7" s="137" t="s">
         <v>209</v>
       </c>
-      <c r="O7" s="137" t="s">
+      <c r="P7" s="137" t="s">
         <v>210</v>
       </c>
-      <c r="P7" s="137" t="s">
+      <c r="Q7" s="137" t="s">
         <v>211</v>
-      </c>
-      <c r="Q7" s="137" t="s">
-        <v>212</v>
       </c>
       <c r="R7" s="137"/>
       <c r="W7" s="206"/>
@@ -9028,7 +9084,7 @@
         <v>Existing Hard Coal CHPs</v>
       </c>
       <c r="D8" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8" s="167"/>
       <c r="F8" s="232">
@@ -9122,7 +9178,7 @@
       <c r="D9" s="166"/>
       <c r="E9" s="167" t="str">
         <f>SEC_Comm!C10</f>
-        <v>ELEC_HV-MV</v>
+        <v>ELEC_MV-MV</v>
       </c>
       <c r="F9" s="178"/>
       <c r="G9" s="178"/>
@@ -9198,7 +9254,7 @@
         <v>Existing Natural Gas CHPs</v>
       </c>
       <c r="D11" s="190" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="190"/>
       <c r="F11" s="236">
@@ -9301,7 +9357,7 @@
       <c r="D12" s="192"/>
       <c r="E12" s="190" t="str">
         <f>SEC_Comm!C10</f>
-        <v>ELEC_HV-MV</v>
+        <v>ELEC_MV-MV</v>
       </c>
       <c r="F12" s="193"/>
       <c r="G12" s="193"/>
@@ -9473,7 +9529,7 @@
     </row>
     <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="270" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="161"/>
       <c r="E2" s="146"/>
@@ -9497,7 +9553,7 @@
     </row>
     <row r="4" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="154"/>
       <c r="G4" s="154"/>
@@ -9513,113 +9569,113 @@
         <v>76</v>
       </c>
       <c r="C5" s="274" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="274" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="F5" s="274" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="G5" s="274" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="274" t="s">
+      <c r="H5" s="282" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="274" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="282" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" s="274" t="s">
+      <c r="J5" s="274" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="274" t="s">
+      <c r="K5" s="274" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="274" t="s">
+      <c r="L5" s="274" t="s">
         <v>137</v>
       </c>
-      <c r="L5" s="274" t="s">
+      <c r="M5" s="274" t="s">
         <v>138</v>
-      </c>
-      <c r="M5" s="274" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="F6" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="G6" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="138" t="s">
+      <c r="H6" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="138" t="s">
+      <c r="I6" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="138" t="s">
-        <v>145</v>
-      </c>
-      <c r="J6" s="138" t="s">
+      <c r="K6" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="K6" s="138" t="s">
+      <c r="L6" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="L6" s="138" t="s">
+      <c r="M6" s="138" t="s">
         <v>148</v>
-      </c>
-      <c r="M6" s="138" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="137" t="s">
         <v>206</v>
-      </c>
-      <c r="E7" s="137" t="s">
-        <v>207</v>
       </c>
       <c r="F7" s="137" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="283" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="283" t="s">
+        <v>204</v>
+      </c>
+      <c r="J7" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="283" t="s">
-        <v>205</v>
-      </c>
-      <c r="I7" s="283" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="137" t="s">
+      <c r="K7" s="137" t="s">
         <v>209</v>
       </c>
-      <c r="K7" s="137" t="s">
+      <c r="L7" s="137" t="s">
         <v>210</v>
       </c>
-      <c r="L7" s="137" t="s">
+      <c r="M7" s="137" t="s">
         <v>211</v>
-      </c>
-      <c r="M7" s="137" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9632,7 +9688,7 @@
         <v>Existing Hard Coal Heat Only Plants</v>
       </c>
       <c r="D8" s="173" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8" s="173" t="str">
         <f>SEC_Comm!C14</f>
@@ -9676,10 +9732,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz7"/>
-  <dimension ref="B2:I15"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9695,7 +9751,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="270" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" s="161"/>
       <c r="E2" s="146"/>
@@ -9707,7 +9763,7 @@
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="154"/>
     </row>
@@ -9716,48 +9772,48 @@
         <v>76</v>
       </c>
       <c r="C5" s="274" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="274" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="274" t="s">
+      <c r="E5" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="F5" s="274" t="s">
         <v>132</v>
-      </c>
-      <c r="F5" s="274" t="s">
-        <v>133</v>
       </c>
       <c r="I5" s="165"/>
     </row>
     <row r="6" spans="2:9" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="F6" s="138" t="s">
         <v>142</v>
-      </c>
-      <c r="F6" s="138" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="137" t="s">
         <v>206</v>
-      </c>
-      <c r="E7" s="137" t="s">
-        <v>207</v>
       </c>
       <c r="F7" s="137" t="s">
         <v>23</v>
@@ -9765,58 +9821,100 @@
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="192" t="str">
-        <f>SEC_Processes!D15</f>
-        <v>TRANSF_HV-LV</v>
+        <f>SEC_Processes!D16</f>
+        <v>TRANSF_HV-HV</v>
       </c>
       <c r="C8" s="192" t="str">
-        <f>SEC_Processes!E15</f>
+        <f>SEC_Processes!E16</f>
         <v>Electricity Transformation and Distribution High Voltage to Low Voltage</v>
       </c>
       <c r="D8" s="192" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="E8" s="192" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>ELEC_HV-HV</v>
+      </c>
+      <c r="F8" s="257">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="H8" s="1">
+        <f>1-F10</f>
+        <v>9.2203197337557885E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="192" t="str">
+        <f>SEC_Processes!D16</f>
+        <v>TRANSF_HV-HV</v>
+      </c>
+      <c r="C9" s="192" t="str">
+        <f>SEC_Processes!E16</f>
+        <v>Electricity Transformation and Distribution High Voltage to Low Voltage</v>
+      </c>
+      <c r="D9" s="192" t="str">
         <f>SEC_Comm!C10</f>
-        <v>ELEC_HV-MV</v>
-      </c>
-      <c r="E8" s="192" t="str">
-        <f>SEC_Comm!C13</f>
-        <v>ELEC_LV</v>
-      </c>
-      <c r="F8" s="257">
+        <v>ELEC_MV-MV</v>
+      </c>
+      <c r="E9" s="192" t="str">
+        <f>SEC_Comm!C12</f>
+        <v>ELEC_LV-LV</v>
+      </c>
+      <c r="F9" s="257">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="192" t="str">
+        <f>SEC_Processes!D17</f>
+        <v>TRANSF_MV-MV</v>
+      </c>
+      <c r="C10" s="192" t="str">
+        <f>SEC_Processes!E17</f>
+        <v>Electricity Transformation and Distribution High Voltage to Low Voltage</v>
+      </c>
+      <c r="D10" s="192" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>ELEC_HV-HV</v>
+      </c>
+      <c r="E10" s="192" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>ELEC_MV-MV</v>
+      </c>
+      <c r="F10" s="257">
         <f>BALANCE!E29*BALANCE!E30*BALANCE!E31</f>
         <v>0.90779680266244211</v>
       </c>
-      <c r="H8" s="1">
-        <f>1-F8</f>
-        <v>9.2203197337557885E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="173" t="str">
-        <f>SEC_Processes!D16</f>
+    </row>
+    <row r="11" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="173" t="str">
+        <f>SEC_Processes!D18</f>
         <v>TRANSF_HT-LT</v>
       </c>
-      <c r="C9" s="173" t="str">
-        <f>SEC_Processes!E16</f>
+      <c r="C11" s="173" t="str">
+        <f>SEC_Processes!E18</f>
         <v>Heat Transformation and Distribution</v>
       </c>
-      <c r="D9" s="177" t="str">
+      <c r="D11" s="177" t="str">
         <f>SEC_Comm!C14</f>
         <v>HEAT_HT</v>
       </c>
-      <c r="E9" s="177" t="str">
+      <c r="E11" s="177" t="str">
         <f>SEC_Comm!C15</f>
         <v>HEAT_LT</v>
       </c>
-      <c r="F9" s="258">
+      <c r="F11" s="258">
         <f>BALANCE!E32</f>
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E15" s="143"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="143"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9843,7 +9941,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="188" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2" s="159"/>
       <c r="D2" s="159"/>
@@ -9864,7 +9962,7 @@
     <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="158"/>
       <c r="C4" s="156" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4" s="160"/>
       <c r="E4" s="160"/>
@@ -9877,40 +9975,40 @@
         <v>33</v>
       </c>
       <c r="D5" s="274" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="274" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="274" t="s">
-        <v>151</v>
-      </c>
       <c r="F5" s="274" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H5" s="266" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B6" s="138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="138" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="305" t="s">
         <v>184</v>
-      </c>
-      <c r="D6" s="305" t="s">
-        <v>185</v>
       </c>
       <c r="E6" s="305"/>
       <c r="F6" s="305"/>
     </row>
     <row r="7" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="137" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="306" t="s">
         <v>218</v>
-      </c>
-      <c r="D7" s="306" t="s">
-        <v>219</v>
       </c>
       <c r="E7" s="306"/>
       <c r="F7" s="306"/>
@@ -9988,7 +10086,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
